--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/67_Samsun_2009.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/67_Samsun_2009.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2009\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2009\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5232EAD-2651-4813-8B6E-77016E57D142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D067519D-7D7F-4F53-8B88-C7066E759D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4289B8DB-7095-47BF-B830-5191E355895A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1B399445-59DF-4B41-A8D5-582BB02CA0C8}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="25" r:id="rId1"/>
@@ -836,10 +836,10 @@
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{D15C5B02-55F9-4BA2-A36E-B42B5E19D0F2}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{B1B0279E-75FB-48A6-82AD-2C99A9ADD523}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{856F0A54-38F4-4664-B67C-0A612C315097}"/>
-    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{915FC949-3F19-41F0-95E3-BFC69BD55AA5}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{376E402F-6458-4F46-B4CD-4402472A71BB}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{5DD3695C-5DDF-486F-8962-483085813BFF}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{9F3E081C-1117-438B-A56A-A6C80DDD22FC}"/>
+    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{0823F42C-4369-48A4-8573-A6283024C1B9}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1237,7 +1237,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46827E38-F0CF-491B-BDA8-0707D45DF514}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3F81CE9-ADAC-4BFF-A7DD-2E9476A59221}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2486,18 +2486,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{3C2CAC13-AC19-4EF7-9516-F69CF48B1016}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{CCFF02F0-D28A-4023-AA63-316122FB613A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{DD94EFD0-B96F-4A72-87B9-49C09CBF49A7}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{13B02654-565E-4B3B-9B1C-CCA662CD53D7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{05D7604F-9718-42F0-865F-75C2B339A0AC}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{FCB92540-AF27-4075-A038-80BC1602DB0A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{EE9CEBA4-7005-482B-8897-FF46D8740685}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{D1FAF50D-844E-4CA8-ADFF-8CE99D8AE542}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{8D16F3DE-8D87-4E41-9EFA-56E99359D6DF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{0A3D9B21-6D8E-4DEC-8A08-97C6FD42A4E2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{9FA10C15-BD02-4E4B-83FC-DE48A1A6295A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{EE5F20E7-E90A-4466-832E-1321023460BE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{2D4C95C8-B27F-4B42-A777-6372255DF351}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{65631348-F16C-4FA4-AF6C-5A14E0627561}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{F1157F7E-6982-4611-9600-6DEADDEE1FC4}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{51125C8E-D910-4163-87BA-8E59B250F175}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{CF1C2CC9-CB8D-4B4A-8B70-606A7710910C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{37142D03-CA86-49C9-8865-4964D7445AAC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{00342F49-5635-463C-99F9-7127BDC01A2F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{A6A62A5C-A319-4C43-9271-116993D23BA8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{1A9F8722-5D09-441A-B556-E140B086E2AE}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{355FD5E6-084B-4270-899A-8867D136354A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{A549CB67-6BDD-4898-ABA9-BAF7CCC4B9FA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{D9023E4F-29C3-4A97-ADDC-E67DD7BAE042}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2510,7 +2510,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACAF412-3AAC-49E3-8ADA-E3C0B6365389}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C1AC8C5-C5BD-4D31-9E9E-626AE3773B17}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3739,18 +3739,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{0D6002A8-B06D-47CA-93AB-AC418DE8CD21}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{CA27F963-931A-4244-A5F8-D5CFC759D9BE}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{575D4EF3-1478-49F8-BB77-27090F8AB8E2}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{A2FFBC8B-991D-4BD7-959A-4A84777B4857}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{F1F3E2E0-0EBA-4010-B49B-AA7646850622}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{0F191F37-41FC-4DC1-A138-D377F9987C34}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{B7AB877C-8B0B-48A9-AB35-75A12ABC5A3C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{BC4716BD-30CE-4E4F-9811-32E455D65DC9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{4F1B9E6A-666B-41ED-9E7C-956B2ECE0B07}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{FF4E4F22-5B1E-4514-9EB7-4993CA4C53D9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{36F93D85-775C-4889-A217-4AACD5CF08CA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{BD98BF4D-0CFA-4C81-ACD2-71F776109908}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{34A6268C-5DA6-491A-AAB0-0A9E0AEDCEFF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{85541C8F-DC05-44F6-B207-558D9F2680AA}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{81F0A9AC-7A1E-4060-BF50-CC9759CF0636}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{0FCF0335-30A6-4075-A9F5-CD65379CCB10}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{162C140E-B80E-4C3E-B7A4-057C8D6668EA}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{5965A13D-1919-4B17-ACF8-B3B7FD2EAC2B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{DC95AA25-0F1C-4647-97EE-75CEED4A9D14}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{A9EC55D0-7DAE-4B3E-96F4-C34C10CC669D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{A71A2A91-262B-4820-98AA-40DF6A41C8B3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{F8465793-2A83-4B85-978B-4B39EC33BE95}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{BB8DDF74-E407-457C-ADBD-25BC78F4A8BC}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{6C0CE4C9-27F0-4726-BADA-9CE87F95584A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3763,7 +3763,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F1F75BC-6F5C-459A-ABC3-1E269C34A257}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E50E27C-DFFD-4084-BA4A-53B5523EAB1B}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -4992,18 +4992,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{054DE370-099D-4FD0-927C-C5FCDB98A0B5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{62E374EA-2B94-41C8-A8F3-AAF57AFFE0BE}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{FA2D115D-D6E7-41CE-9B39-AE5016102F54}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{3B9721C7-AC93-481C-B31D-30E3BF12A17E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{F9828EFB-79AF-44BF-8781-0952B98BC8FE}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{092DD666-B185-43BF-87B2-5515BD5871B9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{344A2E55-F7C4-468F-BA06-EF5EB960E696}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{00A1D553-8324-4C8A-9CA4-9BBEC38C47A4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{11D7D9A2-749B-4BA9-86FF-0C2B75237BCE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{60BB2E21-AE08-43BE-943C-95F674959FBF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{FFD57E91-A4E4-40F0-B873-762D01369FD6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{F2319EFC-671C-4576-9990-FE073263E2A9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{5B0B3F6E-867C-414A-A8E8-73564FB2855A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{16CE066C-E1AE-4186-BFA3-18C36FFFFB8B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{3226F30E-60E6-4CB6-998B-0D49A9FA7D10}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{9815AA49-71E7-4778-B835-E088D9CC3D99}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{0C3B12E2-F242-4C55-B014-2331FAFD8F5A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{DC244FC8-6288-449E-A9DC-AC5067DDCE89}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{8FE59CC2-79A7-4C2D-800A-EF51FFD286A9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{465AB381-C434-4922-AEB6-3718D5FF073A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{DD85A0EF-EE80-48D9-A8F7-C19DEDC65F1B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{C931F043-347B-44B6-A9AF-14C931BD5659}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{D60A1F40-25A5-4C32-AB6E-4217E06A1E19}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{BF4D3A69-9A26-4BD5-A4C5-82FA11B3BEE9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5016,7 +5016,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D164568F-DA69-475D-9F85-3E8F773BED17}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{589CBE6E-8FB6-4446-87DF-C93B35980C38}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6229,18 +6229,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{B6B0622E-65BF-4D62-80EA-3DC54041F2FB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{27A584EA-C904-4843-AD04-6815FC17F063}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{671BEE05-6959-4E0A-819C-5E85F82E8DA8}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{058DAB02-AC36-4313-9BDD-291086B0BDDA}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{9D59DB9F-B7E2-4A52-B65B-E54503FD5157}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{99434203-E5CC-4481-8CB0-126EA5BD6715}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{59D2222F-3DD3-4DB6-9CCB-9F2332FE04E7}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{4C7B62C0-66A2-4762-A8D9-28F5D95BD5D7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{8494F4E2-C4CE-49CD-AD82-4526EFACA6D4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{300874B1-FBC2-4CD6-B5EA-2187747A0E11}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{573227E3-10B2-48F5-A759-B5F695FD3E1C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{76EE3FAA-8ECE-4017-B262-E7A4A0D380B0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{AF2212C0-7754-486E-B7F1-1CAB6A67F611}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{24D97785-18D8-4022-A003-9BA7CC986E63}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{EC07BB4C-9F5E-4F65-812D-01674EC04E5E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{A807C543-D2B7-47B7-BA7C-31D81AE4D521}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{2C36B8F8-39DB-4608-A52F-5FB2881BAE65}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{DE3D7566-1747-43C5-84B9-DE4318AAE245}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{72C80E1E-EBB3-4D0F-A40A-457843ECA49E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{E0FF2CED-BC97-437C-BD74-21881F6D905B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{B26F93F0-4075-4ED5-8ED3-05F6AF2CA68F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{8943F035-6D1E-45B1-B132-9FD6B5AD1658}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{AC97E5C5-6154-45A5-875E-302EFB141A00}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{F7C1E224-1A18-440E-BB8D-C8DE801267CA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6253,7 +6253,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8703D8B-7574-4312-8028-71DCAD516B75}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A008F45-A59F-47D8-87D4-44DCF7B76CF7}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7508,18 +7508,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{8C95F49D-532F-4F9E-9E93-3FE8BB930E3E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{77A50B4A-E16E-43ED-BB30-4929E0973D54}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{029205CE-DD3E-4E6A-ABEA-1006868FC1D7}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{8A694F02-8C2D-4B6F-A10C-89289B4DAA22}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{2B8ACA05-17B7-44B2-871E-D087342631D8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{1F77739D-A3AF-4CE3-8638-2555327D2A5B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{5F644A07-DAF8-4E7B-BAF0-8B5891FA0522}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{686B165E-E617-41F6-9309-93874AB1AFA1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{18A56189-6B39-4BD5-AA2E-1B902CEE4A85}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{C670B9B5-EACE-4830-99A0-2EBD572BD6CA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{4E33E95F-A4A5-41EA-8BA2-E404D8E6DFCA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{13763CFD-6F33-43B2-B848-B525DFCE469D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{529F16A9-30D9-4D98-8FEF-E7B626004D48}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{21616B48-89BC-403E-9BE2-C74B4F96522B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{9C845D1F-0B71-4BE4-B000-66825154F22C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{AC3D6D61-52CC-4DA7-AE0C-7B8F253D3D85}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{A4AA6CFF-DED5-4059-A2D9-A30D1A0291E4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{DAAA677D-07E2-4BC6-AB51-8B23F4BC38E2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{FEA129F4-F05B-4ABA-90E3-F69178936746}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{F3840802-9D5C-4F2A-B0BA-4DAD31CA3237}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{F4BF111A-4E04-4024-B8E5-6C1C477C4719}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{6E111840-BDF2-4EBB-AAF5-D48B1B110B40}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{6890B221-E4C1-4990-AFD9-FC5FEDB9092D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{F05FCB57-147A-450E-A14B-038DE13880A0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7532,7 +7532,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33DA2C9D-9F83-4B32-9D46-997165FED2F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E26D973-6D63-422B-A1F9-4C0C5D88A7F7}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8787,18 +8787,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{01CB8709-33CB-4CB3-A373-73742FDDC976}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{E3863E70-7680-42CF-B2BD-E4FB0680D47C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{67356C6E-61E9-477C-8F23-354E5B91ED10}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{D0B447C0-21A2-4C3D-8506-1C4E44CF4720}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{59D25DF4-04A9-4446-8F5B-B524D20FCD5C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{46EC7A93-0B8E-43E8-9D7C-0CC9639627DF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{80ABDB1C-CCA8-4C2B-ADBC-CDE3E59E5098}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{C32C6149-6033-45EF-A88C-C791DCADFC4F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{D334CF18-C45E-4474-BFBE-D28DDFD01715}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{AE98FB49-B1E3-49E1-814D-0F057B417D26}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{661E70BB-3558-41E4-9E6A-494D7CBC9884}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{2E19F80D-2A23-45E3-B936-1A6378EDAEA8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{932E83BA-7BAA-4FF6-BA60-9A969E6D191F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{797D27DD-23BC-40F5-8826-D1FE58EBFBDA}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{4B5B21B0-4E40-4B63-920D-56514A1F26C2}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{48F32087-8BD6-426A-BB6F-C2E73ECF6A12}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{0C061649-5D46-48B1-A67F-51081C5A9014}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{A43188AB-AB80-4C0D-98E0-6F0044ACABAC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{27663F8D-8409-48DA-8E3D-56125C2D8B60}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{864E1CB7-C118-4843-90A3-34187A6193DC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{A21EB3F5-16E4-4E8E-B0B7-6F4C2E1667FD}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{1AF897B1-45A6-47B8-8EBE-C1B74B4C137A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{BFF85F36-3C6D-4888-9228-8027D1C792BD}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{86038EB4-CD4B-4DF3-8DE0-D44CA1978457}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8811,7 +8811,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25A27968-A28F-41E8-934A-0CA52B979484}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BCF945E-F902-4928-AF43-AC1024D2394E}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -10054,18 +10054,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{DFE34FB0-7A6C-46E8-B4A9-D26222300CD8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{5D82E09E-E43D-417E-A8C4-AEC96AE69704}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{E1CAA8A8-0949-4E0F-9A4C-2403CBD6EE43}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{6C1075AB-F142-4E19-B247-7EE7784C7A3E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{5DC0DAC4-B8A6-4E0B-983E-F4BB20B04391}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{6E63B31A-053E-4F89-8823-301858E5B5FD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{077C5EDE-0379-4412-8AF5-350C519BCC16}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{8A685A15-146B-4209-B764-21BDEF3BE74B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{08E4EA24-4C40-4D21-9CAC-B0D4FFE2D5F1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{B08FB625-D232-4F2B-9B8F-4A62A3620DF9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{F574DE6A-02A5-4317-96D4-848B5BCF64A3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{77FB2413-189D-4B19-B8E6-3ED415E76033}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{673031AB-B375-41B9-AC0D-713D38CF63D2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{37E9CA15-12CF-45D8-8762-DB98AD61FBBD}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{14ED4FE4-F2F4-406D-91EC-9690F13FF595}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{74BB36A1-3879-4CE3-B458-8D3DF06C61E8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{755B1CAF-021D-42E7-868A-B6FDDF2D04C2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{F6CC369E-983B-43F5-BAE0-31DE62ABE710}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{2A8B6070-D53C-48FD-B41C-05FCE6567C43}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{CB915957-0024-4F9E-AF50-DD7F25060AC9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{A4425102-F0C9-4510-AAEE-2E3D3BB79F2B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{F06C1B17-864D-46B7-9DA5-35AFBF63DBAF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{1334E6A0-B446-401B-BBE6-F04C2E1E48E9}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{D7EB50BE-A52D-46D7-8D35-84ECFD0196D0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10078,7 +10078,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{935B4684-6F67-45CE-8A2F-138DAA1BBDFE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B3F5FB0-CA2C-46A9-AEED-D7F2FFD512EB}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11319,18 +11319,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{34F051A8-723A-4591-8215-601E0F13A0D6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{BA06E755-0534-4DD0-B928-2502802D60EA}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{9396034F-7950-4F49-BD84-21FEE0E1DBF7}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{167ED9FD-E51B-43F1-A31D-BBC2B462FD1B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{B693329C-12E3-4DAF-B599-54F30DFA98D6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{9740E3C1-DF84-49BB-9CA3-4E21420ADC85}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{4BF9D67F-F24B-44F4-9A2E-7D6E4AE253DE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{64893F43-7AE8-4A32-A2B6-828C2ED864EA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{4D06F3B4-9125-4F50-8B07-EA3ACC0C764B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{3987810C-2C01-4D4C-9E78-D886FC2CF6AD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{6BAE773C-4D01-40D6-8C68-9B212D4DF44B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{E7FCE936-76A5-4992-9842-6F1F10DAFB80}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{43A3EC74-9793-4F3D-A217-DDEC4B58FC54}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{AF2C7BA3-E4C0-4627-9963-4ACCEDB037B8}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{815B9FBE-42B9-464C-A634-8613FE8992F7}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{C68397D9-A571-4F5F-A87F-F9408323B645}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{6E570118-411C-49FF-98F4-3F7CD4D11ED9}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{BBFAC202-7EFA-44DD-8D0D-B99F98FDA896}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{69E0B3B2-8576-4A8A-8C26-83E9BDF5BB01}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{01D50D45-F33C-464B-A980-B93D56797505}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{195BDD52-08FF-4307-BB70-88A666D3CD03}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{774CF178-9A2F-46B2-9D6A-F02F01E8D2F0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{0480918B-B548-48FD-A07B-CE9542201D70}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{0BD26D8B-0A94-401F-89B2-AEACD6187819}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11343,7 +11343,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F14DA57-8795-43B8-8888-E6DF35EAE6EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FB46CD7-F360-4518-934D-AE5E1C247824}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12584,18 +12584,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{63CE3FEC-71A8-4000-AEE5-C5162DC7E4BA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{A1E9CD22-0F94-4D84-A442-72C2053164D1}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{CB1B02CC-D43B-4FA0-AB51-4535BE3F14C3}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{11CF631A-3DDC-4E68-9CBE-4C02BA479EF7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{8297E0CB-8854-42AD-A050-C1530412B348}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{649B6F2C-DDD9-482D-A82A-FCDB9DF466FC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{5881DF62-81CD-411F-B076-36282313D8EC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{09779F39-431B-46CE-9AF4-1B736A3EF067}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{3A8B0463-7033-4AB7-A8EC-E88ACBCE3A97}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{ADBD6C4C-5E86-436B-89A7-2F84D6206306}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{0FB4CEC4-7F2B-4ACB-8E2B-FF560D6D48D2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{992BD678-E9FC-4D70-AA79-72D5B297B4F1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{7CF2001F-A15A-454F-BBA2-E68045712CFF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{DBF97922-93D1-4E4A-A33F-21E85866632B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{F3DD758C-AF8C-4111-A029-0F701E322C62}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{FD651E78-3036-49D0-9F99-BFA8106EE031}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{02282333-F1F3-4CE9-8249-4B588A4264FC}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{08EF8830-02C8-4E50-A6B5-617CFDB88529}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{8C71CA92-B678-4267-8EFB-85B06E400544}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{C3BE37A3-AB7D-40C5-B07F-8319E055C4D3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{7EA26575-C17C-46EE-892F-97073172DA98}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{FFA022B3-2534-43E9-A19A-BB89332C532C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{62B94BA0-F500-4268-B1C7-60B8B7D75C91}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{67805495-CC52-46D0-80C4-16A1343FE690}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12608,7 +12608,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3F3C359-D640-4637-BD04-EA91CFAF41D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26C6D8E9-672B-4890-B191-9F947E8AC657}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13845,18 +13845,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{2F21C8BA-A15C-48DC-9880-77B15B4E4C96}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{C7F0F56A-D575-4698-9160-27FD4C22F041}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{B6697AAE-6D53-4826-8792-E572A181D89C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{AE9218F1-A5FF-461F-83B0-A639ACD74E6B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{E2B012F7-A22D-42AB-92EC-4FB1179179E3}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{C6D22FFA-D16F-41ED-AA35-E794DD0C849E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{7C7A9FC0-0F4B-4724-B4EE-4388CEC78300}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{B67D0D5C-229F-48B2-92E4-0DE0D0745CA5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{105EEF59-BD5C-4615-AC89-84C515C51FC5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{DD269D9C-0326-48D2-9491-2F19C812C1C9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{CA156DD9-6D66-494E-B1F4-F07C00660FA3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{4E8370ED-48BA-4621-B03F-6E680C62A8DF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{A0551B19-39FC-4100-8839-0275268F6BB3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{F5DF2B55-75DE-4062-ABB8-5058013479BF}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{079C2CC4-5902-404F-9850-E4E8110DD638}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{879BA822-2C87-48FE-AF30-D2FD0940982D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{73E158F6-A80E-4326-B4B1-55A1CA008466}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{B76DF397-6BA1-479D-B13E-02A96707F286}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{42854B44-F6CE-4938-90A4-874275EEF7D0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{9A9B5C29-3E94-48C4-B8B2-8C31A0030759}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{7C83E9EC-0CA7-4491-8924-564FB3893647}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{E90C6FA3-7C94-4A2F-B37A-550B53C608FA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{EED9DA99-4AEB-4386-B895-420432FE2A19}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{7A8254DE-4931-4CB5-8FCC-BF9A134BF6AA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13869,7 +13869,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94E5CA05-4C72-45BD-8B89-BE129F79AA39}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E666BD4-C250-4C03-8C2E-E3022253C334}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15106,18 +15106,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{C9C74286-C699-4E51-9BB6-E099BA6F6BFB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{1198D9F7-9F2F-4797-AA1C-D7C4C8DA8E06}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{4E858A43-41B0-4D56-81FE-6BC684E69E0F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{A408B380-151E-43C9-A4BA-5C9C5869BE45}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{61CF387E-DB7A-45B4-A614-7514F6CCF829}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{CD964FC9-2FA4-47C6-9C7F-8CE83D5CB4F8}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{E51FCF28-7C02-4412-8163-1BA436BFAB58}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{5F0F4BB6-452B-45D2-95E5-6A44A75A4455}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{77C709F9-78CD-448D-AE22-ED19018F03B2}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{7B42C390-C20D-48CD-95A3-6FBCC033BB32}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{17771B86-6185-47B6-AD89-BC692B4ABE88}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{8043C109-580F-480C-A4D4-AF5119E52F94}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{CF5CA148-B031-4B11-A325-D3AC30551B53}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{CE0BB9D8-B5CE-430B-AB72-16A696A7AACE}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{0EB2CBDA-E127-470B-BABC-D339F875452F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{B59D1C07-9488-4931-BC1A-C6199A0158C7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{F87ABE36-68DA-4FCF-A3A3-019DD2C024D2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{75934771-09F1-4AC5-9761-FF3DA1E53308}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{6333E671-6FB6-4A78-9BC4-90F32FC61C69}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{1D592A2D-927C-467E-A805-AE769113D95B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{8FEFE8B2-DD21-4A9D-9D6C-EE550CF85778}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{C6867614-C0A6-4190-AB33-107AF138209E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{D13D0C44-42BA-46D7-A200-46E6E45220B7}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{804BDAC1-CA8E-4039-AA5E-2B2E7A185CA9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15130,7 +15130,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55C64CE0-360A-46EA-883F-32A383E1CD22}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D3E33B-FD6F-4CB1-BF35-C210D7342F99}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -16363,18 +16363,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{1266128E-4EAB-41DB-85D4-C64BF636D03E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{708727E1-DDA4-4357-935A-9C6073620FA1}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{14AC428E-FA44-44ED-B370-52810BBBD379}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{F5E047B3-2372-465F-AFCE-E05D2D0A2A65}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{E822BCE2-F508-4D9C-964D-C96AEF7DEA06}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{5E25B0CD-A258-46A8-B686-FAF7ED6753A5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{02A3E10E-4926-479E-BE5A-DE17524446A3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{9CAC2A77-D9E8-4CF3-B0CB-96EC95190EC2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{09418664-A014-49B1-905E-39A5091A2AE9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{015FFB10-3E25-4F98-8F04-9F84B895A2CE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{7C0D28A3-1B05-429D-A275-617AB405AA6C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{2BB5255F-CA99-4E04-8727-2F17767B40B0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{E0A93F91-CBAA-4092-9E1E-D5D078E5B2FF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{A30DDA47-0EE7-4104-8872-FB43FAC855FD}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{104EC11D-26EE-4120-A8FF-463E6F5AF446}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{73823328-1DF7-42E0-93EE-7E1F5FFBEAB4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{0CED8F9A-19F2-4C51-976D-2384F142BFDC}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{C0C782A3-DCB4-42ED-87FA-EF6973EB6BA5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{916F1112-47C5-4642-8AC0-EF1447FC1708}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{A2ED90F0-7A74-4BB5-8CDD-D1084DEFF3E0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{602ED793-3D2A-4CA6-B991-90F4978D7E1D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{A8ACAA06-CEBB-46D1-A675-BAFEBE7B8705}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{3DE85357-96DF-44B2-AB1E-92D799B57B37}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{5DE85488-F215-41B5-99AC-D20E19DA6144}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
